--- a/F_dataset/DUD-E/CSF1R/CSF1R_prepare/CSF1R_active.xlsx
+++ b/F_dataset/DUD-E/CSF1R/CSF1R_prepare/CSF1R_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T190"/>
+  <dimension ref="A1:T167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10163,1938 +10163,6 @@
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>CHEMBL408431</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>CC1=C(c2cc(N3CCN(C)CC3)ccc2NC(=O)c2ccc(C#N)o2)CCCC1</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>CC1=C(c2cc(N3CCN(C)CC3)ccc2NC(=O)c2ccc(C#N)o2)CCCC1</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>404.51</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>5</v>
-      </c>
-      <c r="J168" t="n">
-        <v>4</v>
-      </c>
-      <c r="K168" t="n">
-        <v>4</v>
-      </c>
-      <c r="L168" t="n">
-        <v>2</v>
-      </c>
-      <c r="M168" t="n">
-        <v>72.51000000000001</v>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q168" t="n">
-        <v>54</v>
-      </c>
-      <c r="R168" t="inlineStr">
-        <is>
-          <t>CHEMBL933669</t>
-        </is>
-      </c>
-      <c r="S168" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS</t>
-        </is>
-      </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>CHEMBL401618</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2c(-c3ccccc3)c3cc(Cl)cnc3[nH]c2=O)on1</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2c(-c3ccccc3)c3cc(Cl)cnc3[nH]c2=O)on1</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>337.77</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4</v>
-      </c>
-      <c r="J169" t="n">
-        <v>2</v>
-      </c>
-      <c r="K169" t="n">
-        <v>4</v>
-      </c>
-      <c r="L169" t="n">
-        <v>4</v>
-      </c>
-      <c r="M169" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q169" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>CHEMBL951197</t>
-        </is>
-      </c>
-      <c r="S169" t="inlineStr">
-        <is>
-          <t>Inhibition of human cytoplasmic macrophage colony-stimulating factor 1 receptor by fluorescence polarization</t>
-        </is>
-      </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>CHEMBL248933</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>1</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>COc1ccc(Nc2c(C(N)=O)cnc3cc(-c4ccncc4)ccc23)cc1Cl</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>COc1ccc(Nc2c(C(N)=O)cnc3cc(-c4ccncc4)ccc23)cc1Cl</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>404.86</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>5</v>
-      </c>
-      <c r="J170" t="n">
-        <v>5</v>
-      </c>
-      <c r="K170" t="n">
-        <v>4</v>
-      </c>
-      <c r="L170" t="n">
-        <v>4</v>
-      </c>
-      <c r="M170" t="n">
-        <v>90.13</v>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q170" t="n">
-        <v>32</v>
-      </c>
-      <c r="R170" t="inlineStr">
-        <is>
-          <t>CHEMBL925269</t>
-        </is>
-      </c>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>Inhibition of cfms</t>
-        </is>
-      </c>
-      <c r="T170" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>CHEMBL381207</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Cc1sc2ncnc(N)c2c1-c1ccc(NC(=O)Nc2cc(C(F)(F)F)ccc2F)cc1</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Cc1sc2ncnc(N)c2c1-c1ccc(NC(=O)Nc2cc(C(F)(F)F)ccc2F)cc1</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>461.44</v>
-      </c>
-      <c r="H171" t="n">
-        <v>3</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4</v>
-      </c>
-      <c r="J171" t="n">
-        <v>3</v>
-      </c>
-      <c r="K171" t="n">
-        <v>4</v>
-      </c>
-      <c r="L171" t="n">
-        <v>4</v>
-      </c>
-      <c r="M171" t="n">
-        <v>92.93000000000001</v>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q171" t="n">
-        <v>57</v>
-      </c>
-      <c r="R171" t="inlineStr">
-        <is>
-          <t>CHEMBL872200</t>
-        </is>
-      </c>
-      <c r="S171" t="inlineStr">
-        <is>
-          <t>Inhibitory activity against CSF1R</t>
-        </is>
-      </c>
-      <c r="T171" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>CHEMBL456375</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(N(C)c3ccccc3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(N(C)c3ccccc3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>295.34</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>5</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4</v>
-      </c>
-      <c r="K172" t="n">
-        <v>3</v>
-      </c>
-      <c r="L172" t="n">
-        <v>3</v>
-      </c>
-      <c r="M172" t="n">
-        <v>47.48</v>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q172" t="n">
-        <v>500</v>
-      </c>
-      <c r="R172" t="inlineStr">
-        <is>
-          <t>CHEMBL971735</t>
-        </is>
-      </c>
-      <c r="S172" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R</t>
-        </is>
-      </c>
-      <c r="T172" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>CHEMBL3109344</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>1</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>COCCOc1ccn2c(-c3ccc4cccc(O[C@H]5CCCNC5)c4n3)cnc2c1</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>COCCOc1ccn2c(-c3ccc4cccc(O[C@H]5CCCNC5)c4n3)cnc2c1</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>418.5</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>6</v>
-      </c>
-      <c r="J173" t="n">
-        <v>7</v>
-      </c>
-      <c r="K173" t="n">
-        <v>5</v>
-      </c>
-      <c r="L173" t="n">
-        <v>4</v>
-      </c>
-      <c r="M173" t="n">
-        <v>69.91</v>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q173" t="n">
-        <v>21</v>
-      </c>
-      <c r="R173" t="inlineStr">
-        <is>
-          <t>CHEMBL3111863</t>
-        </is>
-      </c>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t>Inhibition of cFMS (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>CHEMBL3586404</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>1</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>CO[C@H]1CC[C@H](N2C(=O)CNc3ncc(-c4ccc(C(C)(C)O)nc4)nc32)CC1</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>CO[C@H]1CC[C@H](N2C(=O)CNc3ncc(-c4ccc(C(C)(C)O)nc4)nc32)CC1</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>397.48</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>7</v>
-      </c>
-      <c r="J174" t="n">
-        <v>4</v>
-      </c>
-      <c r="K174" t="n">
-        <v>4</v>
-      </c>
-      <c r="L174" t="n">
-        <v>2</v>
-      </c>
-      <c r="M174" t="n">
-        <v>100.47</v>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q174" t="n">
-        <v>28</v>
-      </c>
-      <c r="R174" t="inlineStr">
-        <is>
-          <t>CHEMBL3587471</t>
-        </is>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>Inhibition of cFMS (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T174" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>CHEMBL3616990</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Cc1ccccc1C(=O)Nc1cnoc1C</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Cc1ccccc1C(=O)Nc1cnoc1C</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>216.24</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3</v>
-      </c>
-      <c r="J175" t="n">
-        <v>2</v>
-      </c>
-      <c r="K175" t="n">
-        <v>2</v>
-      </c>
-      <c r="L175" t="n">
-        <v>2</v>
-      </c>
-      <c r="M175" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P175" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q175" t="n">
-        <v>216</v>
-      </c>
-      <c r="R175" t="inlineStr">
-        <is>
-          <t>CHEMBL3620030</t>
-        </is>
-      </c>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS (unknown origin) after 40 mins by scintillation counting analysis</t>
-        </is>
-      </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>CHEMBL508935</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>1</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCN(C)C(=O)C4)cc3)ncc2c1=O</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCN(C)C(=O)C4)cc3)ncc2c1=O</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>567.65</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>8</v>
-      </c>
-      <c r="J176" t="n">
-        <v>8</v>
-      </c>
-      <c r="K176" t="n">
-        <v>6</v>
-      </c>
-      <c r="L176" t="n">
-        <v>4</v>
-      </c>
-      <c r="M176" t="n">
-        <v>121.69</v>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q176" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>CHEMBL961253</t>
-        </is>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>Inhibition of Fms by fluorescence polarization competition immunoassay</t>
-        </is>
-      </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>CHEMBL4473704</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>1</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>COc1cc(C2CN(C(=O)c3cc(OCCN4CCOCC4)ccn3)C2)ccc1OCc1ccc(C2CC2)cc1</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>COc1cc(C2CN(C(=O)c3cc(OCCN4CCOCC4)ccn3)C2)ccc1OCc1ccc(C2CC2)cc1</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>543.66</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>7</v>
-      </c>
-      <c r="J177" t="n">
-        <v>11</v>
-      </c>
-      <c r="K177" t="n">
-        <v>6</v>
-      </c>
-      <c r="L177" t="n">
-        <v>3</v>
-      </c>
-      <c r="M177" t="n">
-        <v>73.36</v>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q177" t="n">
-        <v>12</v>
-      </c>
-      <c r="R177" t="inlineStr">
-        <is>
-          <t>CHEMBL4424848</t>
-        </is>
-      </c>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>Inhibition of human CSF1R tyrosine kinase domain (538 to 972 residues) using Poly(Glu, Tyr)-biotinylated peptide as substrate preincubated for 5 mins followed by substrate addition and measured after 10 mins by HTRF assay</t>
-        </is>
-      </c>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>CHEMBL3301607</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>1</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>O=C(Nc1nc2cccc(-c3ccc(CN4CCS(=O)(=O)CC4)cc3)n2n1)C1CC1</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>O=C(Nc1nc2cccc(-c3ccc(CN4CCS(=O)(=O)CC4)cc3)n2n1)C1CC1</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v>425.51</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>6</v>
-      </c>
-      <c r="J178" t="n">
-        <v>5</v>
-      </c>
-      <c r="K178" t="n">
-        <v>5</v>
-      </c>
-      <c r="L178" t="n">
-        <v>3</v>
-      </c>
-      <c r="M178" t="n">
-        <v>96.67</v>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q178" t="n">
-        <v>489</v>
-      </c>
-      <c r="R178" t="inlineStr">
-        <is>
-          <t>CHEMBL3382757</t>
-        </is>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>Inhibition of human CSF1R (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T178" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>CHEMBL3678305</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>1</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cnc3c(c2)ncn3Cc2ccc(OC(C)c3ccc(OC)nc3)c(OC)c2)cn1</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cnc3c(c2)ncn3Cc2ccc(OC(C)c3ccc(OC)nc3)c(OC)c2)cn1</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
-        <v>497.56</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>8</v>
-      </c>
-      <c r="J179" t="n">
-        <v>9</v>
-      </c>
-      <c r="K179" t="n">
-        <v>5</v>
-      </c>
-      <c r="L179" t="n">
-        <v>5</v>
-      </c>
-      <c r="M179" t="n">
-        <v>93.41</v>
-      </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q179" t="n">
-        <v>103</v>
-      </c>
-      <c r="R179" t="inlineStr">
-        <is>
-          <t>CHEMBL3705886</t>
-        </is>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Reagents and consumables were purchased from Sigma Aldrich, Carna Biosciences, or Caliper Life Sciences. All assay reaction conditions for IC50 determinations were within the linear range with respect to time and enzyme concentration. In a 384 well polypropylene plate, c-FMS (0.14 nM, Carna 08-155) was pre-incubated in a 100 mM Hepes-NaOH pH 7.5 buffer containing 0.01% Triton X-100, 10 mM MgCl2, 0.1% BSA, 1 mM DTT, 10 uM sodium orthovanadate and 10 uM beta-glycerophosphate and compound with a concentration of 2.5% DMSO for 15 minutes at room temperature. The reaction was initiated with an equal volume of peptide substrate (Caliper Life Sciences catalog no. 760430) and ATP in the aforementioned buffer. The final concentrations in the reaction were 70 pM c-FMS, 1.5 uM peptide substrate and 500 uM ATP (ATP Km). The reaction was incubated at room temperature for 120 minutes and terminated with a buffer containing excess EDTA (100 mM Hepes-NaOH pH 7.5, 0.02% Brij, 0.1% CR-3.</t>
-        </is>
-      </c>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>CHEMBL4065693</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>1</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>C=CC(=O)Nc1cccc(CNc2cc(Nc3ccccc3)ncc2C(N)=O)c1</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>C=CC(=O)Nc1cccc(CNc2cc(Nc3ccccc3)ncc2C(N)=O)c1</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
-        <v>387.44</v>
-      </c>
-      <c r="H180" t="n">
-        <v>4</v>
-      </c>
-      <c r="I180" t="n">
-        <v>5</v>
-      </c>
-      <c r="J180" t="n">
-        <v>8</v>
-      </c>
-      <c r="K180" t="n">
-        <v>3</v>
-      </c>
-      <c r="L180" t="n">
-        <v>3</v>
-      </c>
-      <c r="M180" t="n">
-        <v>109.14</v>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q180" t="n">
-        <v>180</v>
-      </c>
-      <c r="R180" t="inlineStr">
-        <is>
-          <t>CHEMBL4047251</t>
-        </is>
-      </c>
-      <c r="S180" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS (unknown origin) by caliper assay</t>
-        </is>
-      </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>CHEMBL4534671</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>1</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>COc1cccc(NC(=O)c2ccc(C)c(C#Cc3cc(-c4cnn(C)c4)cnc3N)c2)c1</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>COc1cccc(NC(=O)c2ccc(C)c(C#Cc3cc(-c4cnn(C)c4)cnc3N)c2)c1</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>437.5</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>5</v>
-      </c>
-      <c r="J181" t="n">
-        <v>4</v>
-      </c>
-      <c r="K181" t="n">
-        <v>4</v>
-      </c>
-      <c r="L181" t="n">
-        <v>4</v>
-      </c>
-      <c r="M181" t="n">
-        <v>95.06</v>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q181" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>CHEMBL4325582</t>
-        </is>
-      </c>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant CSF1R (unknown origin) using poly (Glu, Tyr)4:1 as substrate measured after 1 hr by ELISA</t>
-        </is>
-      </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>CHEMBL5072178</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>1</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Cc1nn(CC(F)(F)F)cc1Nc1nccc(NCc2ccc(S(N)(=O)=O)cc2)n1</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Cc1nn(CC(F)(F)F)cc1Nc1nccc(NCc2ccc(S(N)(=O)=O)cc2)n1</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>441.44</v>
-      </c>
-      <c r="H182" t="n">
-        <v>3</v>
-      </c>
-      <c r="I182" t="n">
-        <v>7</v>
-      </c>
-      <c r="J182" t="n">
-        <v>7</v>
-      </c>
-      <c r="K182" t="n">
-        <v>3</v>
-      </c>
-      <c r="L182" t="n">
-        <v>3</v>
-      </c>
-      <c r="M182" t="n">
-        <v>127.82</v>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q182" t="n">
-        <v>233</v>
-      </c>
-      <c r="R182" t="inlineStr">
-        <is>
-          <t>CHEMBL5046585</t>
-        </is>
-      </c>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human FMS (538 to end residues) using KKKSPGEYVNIEFG as substrate measured after 40 mins in presence of [gamma33P]ATP by radiometric scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>CHEMBL5090643</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3cc(NC(=O)Nc4cc(C(C)(C)C)on4)ccc32)c(C)c1NC(=O)CCN1CCN(C)CC1</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3cc(NC(=O)Nc4cc(C(C)(C)C)on4)ccc32)c(C)c1NC(=O)CCN1CCN(C)CC1</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>588.71</v>
-      </c>
-      <c r="H183" t="n">
-        <v>5</v>
-      </c>
-      <c r="I183" t="n">
-        <v>7</v>
-      </c>
-      <c r="J183" t="n">
-        <v>7</v>
-      </c>
-      <c r="K183" t="n">
-        <v>5</v>
-      </c>
-      <c r="L183" t="n">
-        <v>3</v>
-      </c>
-      <c r="M183" t="n">
-        <v>147.63</v>
-      </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q183" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R183" t="inlineStr">
-        <is>
-          <t>CHEMBL5057528</t>
-        </is>
-      </c>
-      <c r="S183" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin) incubated for 30 mins in presence of ATP by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T183" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>CHEMBL3355065</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>1</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>CNc1cc2ccc(C#CCOc3ccc(CN4CCNCC4)c(C(F)(F)F)c3)cc2cn1</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>CNc1cc2ccc(C#CCOc3ccc(CN4CCNCC4)c(C(F)(F)F)c3)cc2cn1</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>454.5</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>5</v>
-      </c>
-      <c r="J184" t="n">
-        <v>5</v>
-      </c>
-      <c r="K184" t="n">
-        <v>4</v>
-      </c>
-      <c r="L184" t="n">
-        <v>3</v>
-      </c>
-      <c r="M184" t="n">
-        <v>49.42</v>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q184" t="n">
-        <v>46</v>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>CHEMBL3379618</t>
-        </is>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>CHEMBL3660784</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>1</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>CC1(C)CC=C(c2nc(CC(=O)O)ccc2NC(=O)c2ncc(C#N)[nH]2)CC1</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>CC1(C)CC=C(c2nc(CC(=O)O)ccc2NC(=O)c2ncc(C#N)[nH]2)CC1</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>379.42</v>
-      </c>
-      <c r="H185" t="n">
-        <v>3</v>
-      </c>
-      <c r="I185" t="n">
-        <v>6</v>
-      </c>
-      <c r="J185" t="n">
-        <v>5</v>
-      </c>
-      <c r="K185" t="n">
-        <v>3</v>
-      </c>
-      <c r="L185" t="n">
-        <v>2</v>
-      </c>
-      <c r="M185" t="n">
-        <v>131.76</v>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q185" t="n">
-        <v>26</v>
-      </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>CHEMBL3887764</t>
-        </is>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>Fluorescence Polarization Competition Immunoassay: A fluorescence polarization competition immunoassay was used to measure compound inhibition of CSF-1R phosphorylation of tyrosine on a synthetic CSF-1R555-568 peptide (SYEGNSYTFIDPTQ). The assay was performed in black 96-well microplates (Cat #42-000-0117, Molecular Devices, Sunnyvale, Calif.). To each well, 5 uL of compound (in 4% DMSO) were mixed with 2 uL of 3.5 nM CSF-1R, 25 mM MgCl2 in assay buffer (100 mM HEPES (hydroxyethylpiperazineethylsodiumsulfonate), pH 7.5, 1 mM DTT (dithiothreitol), 0.01% Tween-20), and 2 uL of 1540 uM peptide in assay buffer. The kinase reaction was initiated by adding 1 Î¼L of 10 mM ATP in assay buffer. The final concentrations in the 10 uL reaction mixture were 100 mM HEPES, pH 7.5, 1 mM DTT, 0.01% Tween-20, 2% DMSO, 308 uM SYEGNSYTFIDPTQ, 1 mM ATP, 5 mM MgCl2, and 0.7 nM CSF-1R. Positive and negative control wells were included on each plate, where 4% DMSO in assay buffer was substituted for the compound; in addition, positive control wells received 1.2 uL of 50 mM EDTA (ethylenediaminetetraacetic acid) before the start of the reaction.</t>
-        </is>
-      </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>CHEMBL4868857</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>1</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>CNC(=O)c1cc(Oc2ccc3nc(N[C@H]4CCCC[C@H]4O)sc3c2)ccn1</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>CNC(=O)c1cc(Oc2ccc3nc(N[C@H]4CCCC[C@H]4O)sc3c2)ccn1</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>398.49</v>
-      </c>
-      <c r="H186" t="n">
-        <v>3</v>
-      </c>
-      <c r="I186" t="n">
-        <v>6</v>
-      </c>
-      <c r="J186" t="n">
-        <v>5</v>
-      </c>
-      <c r="K186" t="n">
-        <v>4</v>
-      </c>
-      <c r="L186" t="n">
-        <v>3</v>
-      </c>
-      <c r="M186" t="n">
-        <v>96.37</v>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q186" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R186" t="inlineStr">
-        <is>
-          <t>CHEMBL4816272</t>
-        </is>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>CHEMBL475251</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>1</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>COc1cc(Nc2ncc(F)c(Nc3ccc4c(n3)NC(=O)C(C)(C)O4)n2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>470.46</v>
-      </c>
-      <c r="H187" t="n">
-        <v>3</v>
-      </c>
-      <c r="I187" t="n">
-        <v>10</v>
-      </c>
-      <c r="J187" t="n">
-        <v>7</v>
-      </c>
-      <c r="K187" t="n">
-        <v>4</v>
-      </c>
-      <c r="L187" t="n">
-        <v>3</v>
-      </c>
-      <c r="M187" t="n">
-        <v>128.75</v>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q187" t="n">
-        <v>31</v>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>CHEMBL1908692</t>
-        </is>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>Binding constant for CSF1R kinase domain</t>
-        </is>
-      </c>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>CHEMBL1908397</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>1</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>O=C(c1ccc(/C=C/c2n[nH]c3ccccc23)cc1)N1CCNCC1</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
-        <v>332.41</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3</v>
-      </c>
-      <c r="K188" t="n">
-        <v>4</v>
-      </c>
-      <c r="L188" t="n">
-        <v>3</v>
-      </c>
-      <c r="M188" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q188" t="n">
-        <v>120</v>
-      </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>CHEMBL1908692</t>
-        </is>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>Binding constant for CSF1R kinase domain</t>
-        </is>
-      </c>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>CHEMBL4878007</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>1</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Nc1ncc(-c2cc3ccccc3o2)c(N2CCC3(CCNC3=O)CC2)c1Cl</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Nc1ncc(-c2cc3ccccc3o2)c(N2CCC3(CCNC3=O)CC2)c1Cl</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>396.88</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>5</v>
-      </c>
-      <c r="J189" t="n">
-        <v>2</v>
-      </c>
-      <c r="K189" t="n">
-        <v>5</v>
-      </c>
-      <c r="L189" t="n">
-        <v>3</v>
-      </c>
-      <c r="M189" t="n">
-        <v>84.39</v>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q189" t="n">
-        <v>166</v>
-      </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>CHEMBL4812449</t>
-        </is>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>Inhibition of human FMS using KKKSPGEYVNIEFG as substrate incubated for 40 mins in presence of [gamma-33ATP] by scintillation counting based radiometry assay</t>
-        </is>
-      </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>CHEMBL608533</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>1</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>570.65</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>4</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3</v>
-      </c>
-      <c r="K190" t="n">
-        <v>9</v>
-      </c>
-      <c r="L190" t="n">
-        <v>6</v>
-      </c>
-      <c r="M190" t="n">
-        <v>77.73</v>
-      </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q190" t="n">
-        <v>330</v>
-      </c>
-      <c r="R190" t="inlineStr">
-        <is>
-          <t>CHEMBL1244774</t>
-        </is>
-      </c>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>Binding affinity to CSF1R</t>
-        </is>
-      </c>
-      <c r="T190" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
